--- a/pred_ohlcv/54_21/2019-11-15 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 CTXC ohlcv.xlsx
@@ -1276,7 +1276,7 @@
         <v>3081633.017700594</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3081633.017700594</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2963242.960500594</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2897745.156300594</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2809427.684900594</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2938720.159400594</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2922852.706800594</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>3071976.239400594</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3105167.006100594</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3378073.254600594</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3378073.254600594</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3418035.216046496</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3281347.289646496</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3224408.837846496</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3226423.663146496</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>3742570.978046496</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3733671.321436789</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>3064340.405874606</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>4075113.208496083</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3818150.535496083</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3560197.782996083</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>3734767.986896083</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3614724.457238018</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3642475.661138018</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>3539499.111654147</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>3517305.285554147</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3361700.427471706</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3265002.572771706</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>3302446.941571706</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3281919.779971705</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3197537.576971706</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>3159231.862871706</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>3200823.495471706</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>3161283.523171706</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>3161283.523171706</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>3074844.963471706</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2977423.058271706</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2977423.058271706</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>3009012.137471706</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>3290684.664904625</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>3290684.664904625</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>3290684.664904625</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3489676.027796241</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3363488.837532827</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3260041.510732827</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3260041.510732827</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3350390.839886864</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3299696.934886864</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>3173013.107386864</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>3173013.107386864</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>3049652.57751219</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>3049652.57751219</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>2970688.42781219</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>2971960.05381219</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>2971967.05381219</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>2971944.42381219</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>2971944.42381219</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>2976694.42381219</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>2964271.06111219</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>2964271.06111219</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>3010631.478012189</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>3010631.478012189</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>3014627.870112189</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3029096.726412189</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>3026040.726412189</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>3044760.296012189</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>3073135.193012189</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3101376.537712189</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>3157324.538912189</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>3157324.538912189</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3157324.538912189</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>3157324.538912189</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>3157324.538912189</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>3135175.705612189</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>3135199.305612189</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>3116983.795812189</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>3118517.795812189</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>3111179.447012189</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>3111229.447012189</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>3104860.020312189</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>3137880.763112189</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>3137880.763112189</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3137829.763112189</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3106335.347912189</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3102610.601158942</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>3102610.601158942</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>3104707.516858942</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>3103789.833258942</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>3109905.684658942</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>3109905.684658942</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>3109833.684658942</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>2929314.544597403</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>2934865.128087147</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>2934931.161187147</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>2934868.281087147</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>2922959.828587147</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>2922997.271887147</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>2923017.271887147</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>2911067.271887147</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>2937215.386887147</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>2937215.386887147</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>2937215.386887147</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>2937215.386887147</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>2937122.419687147</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>2937122.419687147</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>2937122.419687147</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>2939947.415687147</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>2957951.550087147</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>2952122.825787147</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>2953575.528087147</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>2953575.528087147</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>2953575.528087147</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>2953575.528087147</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>2951938.375487147</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>2941684.836287147</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>2902595.364387147</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>2859959.840287147</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>2859959.840287147</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>2859959.840287147</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>2970494.354863618</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>3063118.728963618</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>3063118.728963618</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>3043056.460363618</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>3019589.023863618</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>3001965.513263618</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>3001968.813263617</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>3001977.142363618</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>3001977.142363618</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>3001973.842363618</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>3001973.842363618</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>3000086.422263618</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>3000086.422263618</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>3000137.250663618</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>2990060.545763618</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>2990754.271563618</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>2990754.271563618</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>2990815.991363618</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>2989259.134163618</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>2989362.307240541</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>2988127.207540541</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>2988127.207540541</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>2990084.748540541</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>2989768.755140541</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>3047722.521463618</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>3031303.760263618</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>3031322.760263618</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>2862480.113363618</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>2819851.159363618</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>2820508.130063618</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>2798915.679863618</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>2798915.679863618</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>2798915.679863618</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>2793636.836063618</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>2790405.161763618</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>2796007.503463618</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>2768753.371008781</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>2751037.119708781</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>2751037.119708781</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>2751037.119708781</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>2747936.64340878</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>2740840.444808781</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>2745413.494508781</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>2745413.494508781</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>2751350.387508781</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>2751350.387508781</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>2846495.2427893</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>2846495.2427893</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>2846495.2427893</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>2821328.2359893</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>2806460.9686893</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>2812076.2042893</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>2812076.2042893</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>2795568.1239893</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>2791713.6639893</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>2791718.6639893</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>2787707.7810893</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>2787707.7810893</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>2787707.7810893</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>2706075.8725893</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>2701079.3149893</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>2699487.8796893</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>2716419.7626893</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>2792194.5897893</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>2943885.8693893</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>2943885.8693893</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>3163835.6195893</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>3294328.884015226</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>3675436.435815226</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>3875616.426366375</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>4065845.855439103</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>4218679.608539103</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>4042328.242288329</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>3968085.542429506</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>4032976.618629506</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>4139415.302652859</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>4179703.790452859</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>4105534.077252859</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>4197591.51785286</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>4197591.51785286</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>4266438.350152859</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>4299776.24035286</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>4333931.17565286</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>4360852.429024288</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>4320654.392524288</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>4371049.963004402</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>4368813.81527583</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>4384798.143975831</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>4370776.03057583</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>4277447.34857583</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>4283247.586875831</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>4283247.586875831</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>4283247.586875831</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>4303334.173975831</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>4303334.173975831</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>4355889.722875831</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>4538012.752875831</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>4417501.699275831</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>4550204.153218688</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>4678964.547018687</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>4678964.547018687</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>4646819.744970354</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>4879443.715470354</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>4857866.626170354</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>4896869.685470354</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>5038491.189670354</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>5300363.082470354</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>5039748.611823545</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>5175804.637104651</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>5300116.740904651</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>5160566.353204652</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>5065160.771604652</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>5065160.771604652</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>5114547.250004651</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>5128481.887592695</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>5045984.136458268</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>4931568.778139484</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>6736945.895306343</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>7041175.949106343</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>7283539.909406343</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>7016442.169195705</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>6891284.000057652</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>6891284.000057652</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>7071375.063957652</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>6999563.774286097</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>6822851.898086097</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>6659537.427986098</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>6502454.105386098</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>6397831.24677289</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>6211204.34377289</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>6211204.34377289</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>6160389.25807289</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>5312545.202268767</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-15 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 CTXC ohlcv.xlsx
@@ -1276,7 +1276,7 @@
         <v>3081633.017700594</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3081633.017700594</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2963242.960500594</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2897745.156300594</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2809427.684900594</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2938720.159400594</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2922852.706800594</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>3071976.239400594</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3105167.006100594</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3378073.254600594</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3378073.254600594</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3418035.216046496</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3281347.289646496</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3224408.837846496</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3226423.663146496</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>3742570.978046496</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3733671.321436789</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>3064340.405874606</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>4075113.208496083</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3818150.535496083</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3560197.782996083</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>3734767.986896083</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3614724.457238018</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3642475.661138018</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>3539499.111654147</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>3517305.285554147</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3361700.427471706</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3265002.572771706</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>3302446.941571706</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3281919.779971705</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3197537.576971706</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>3159231.862871706</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>3200823.495471706</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>3161283.523171706</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>3161283.523171706</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>3074844.963471706</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2977423.058271706</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2977423.058271706</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>3009012.137471706</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>3290684.664904625</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>3290684.664904625</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>3290684.664904625</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3489676.027796241</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3363488.837532827</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3260041.510732827</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3260041.510732827</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3350390.839886864</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3299696.934886864</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>3173013.107386864</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>3173013.107386864</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>3049652.57751219</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>3049652.57751219</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>2970688.42781219</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>2971960.05381219</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>2971967.05381219</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>2971944.42381219</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>2971944.42381219</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>2976694.42381219</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>2964271.06111219</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>2964271.06111219</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>3010631.478012189</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>3010631.478012189</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>3014627.870112189</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3029096.726412189</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>3026040.726412189</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>3044760.296012189</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>3073135.193012189</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3101376.537712189</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>3157324.538912189</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>3157324.538912189</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3157324.538912189</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>3157324.538912189</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>3157324.538912189</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>3135175.705612189</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>3135199.305612189</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>3116983.795812189</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>3118517.795812189</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>3111179.447012189</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>3111229.447012189</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>3104860.020312189</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>3137880.763112189</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>3137880.763112189</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3137829.763112189</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3106335.347912189</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3102610.601158942</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>3102610.601158942</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>3104707.516858942</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>3103789.833258942</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>3109905.684658942</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>3109905.684658942</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>3109833.684658942</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>2929314.544597403</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>2934865.128087147</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>2934931.161187147</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>2934868.281087147</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>2922959.828587147</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>2922997.271887147</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>2923017.271887147</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>2911067.271887147</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>2937215.386887147</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>2937215.386887147</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>2937215.386887147</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>2937215.386887147</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>2937122.419687147</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>2937122.419687147</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>2937122.419687147</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>2939947.415687147</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>2957951.550087147</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>2952122.825787147</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>2953575.528087147</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>2953575.528087147</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>2953575.528087147</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>2953575.528087147</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>2951938.375487147</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>2941684.836287147</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>2902595.364387147</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>2859959.840287147</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>2859959.840287147</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>2859959.840287147</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>2970494.354863618</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>3063118.728963618</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>3063118.728963618</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>3043056.460363618</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>3019589.023863618</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>3001965.513263618</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>3001968.813263617</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>3001977.142363618</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>3001977.142363618</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>3001973.842363618</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>3001973.842363618</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>3000086.422263618</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>3000086.422263618</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>3000137.250663618</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>2990060.545763618</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>2990754.271563618</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>2990754.271563618</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>2990815.991363618</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>2989259.134163618</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>2989362.307240541</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>2988127.207540541</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>2988127.207540541</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>2990084.748540541</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>2989768.755140541</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>3047722.521463618</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>3031303.760263618</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>3031322.760263618</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>2862480.113363618</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>2819851.159363618</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>2820508.130063618</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>2798915.679863618</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>2798915.679863618</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>2798915.679863618</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>2793636.836063618</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>2790405.161763618</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>2796007.503463618</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>2768753.371008781</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>2751037.119708781</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>2751037.119708781</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>2751037.119708781</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>2747936.64340878</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>2740840.444808781</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>2745413.494508781</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>2745413.494508781</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>2751350.387508781</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>2751350.387508781</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>2846495.2427893</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>2846495.2427893</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>2846495.2427893</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>2821328.2359893</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>2806460.9686893</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>2812076.2042893</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>2812076.2042893</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>2795568.1239893</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>2791713.6639893</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>2791718.6639893</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>2787707.7810893</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>2787707.7810893</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>2787707.7810893</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>2706075.8725893</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>2701079.3149893</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>2699487.8796893</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>2700575.8222893</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>2716419.7626893</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>2792194.5897893</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>2943885.8693893</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>2943885.8693893</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>3163835.6195893</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>3294328.884015226</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>3675436.435815226</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>3875616.426366375</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>4065845.855439103</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>4218679.608539103</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>4042328.242288329</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>3968085.542429506</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>4032976.618629506</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>4139415.302652859</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>4179703.790452859</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>4105534.077252859</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>4197591.51785286</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>4197591.51785286</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>4266438.350152859</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>4299776.24035286</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>4333931.17565286</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>4360852.429024288</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>4320654.392524288</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>4371049.963004402</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>4368813.81527583</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>4384798.143975831</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>4370776.03057583</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>4277447.34857583</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>4283247.586875831</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>4283247.586875831</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>4283247.586875831</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>4303334.173975831</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>4303334.173975831</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>4355889.722875831</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>4538012.752875831</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>4417501.699275831</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>4550204.153218688</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>4678964.547018687</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>4678964.547018687</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>4646819.744970354</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>4879443.715470354</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>4857866.626170354</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>4896869.685470354</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>5038491.189670354</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>5300363.082470354</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>5039748.611823545</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>5175804.637104651</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>5300116.740904651</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>5160566.353204652</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>5065160.771604652</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>5065160.771604652</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>5114547.250004651</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>5128481.887592695</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>5045984.136458268</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>4931568.778139484</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>5810362.634306343</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>6040575.554106344</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>6040575.554106344</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>6278240.610806343</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>6639109.194006343</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>6736945.895306343</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>7041175.949106343</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>7283539.909406343</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>7016442.169195705</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>6891284.000057652</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>6891284.000057652</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>7071375.063957652</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>6999563.774286097</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>6822851.898086097</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>6659537.427986098</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>6502454.105386098</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>6397831.24677289</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>6211204.34377289</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>6211204.34377289</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>6160389.25807289</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>5668642.382872891</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>5312545.202268767</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>5017215.257768767</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
